--- a/data/trans_orig/P19C05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F9F22CA-A577-4580-B531-F819D6A070AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F960ED0-A7B3-4F6A-AFB3-396036B9CE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EBF78B95-2B1E-41C4-AFF8-17DEB485B1F9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0165C57B-1BFA-4C80-9844-6B51B499F79D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="597">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,1729 +77,1759 @@
     <t>18,23%</t>
   </si>
   <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
   </si>
   <si>
     <t>13,43%</t>
   </si>
   <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
   </si>
   <si>
     <t>86,57%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
   </si>
   <si>
     <t>12,67%</t>
   </si>
   <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>87,33%</t>
   </si>
   <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
     <t>88,93%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
   </si>
 </sst>
 </file>
@@ -2211,7 +2241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80876156-2266-4839-8760-8316D3F7B61B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58620AF-98FA-4C9D-BC93-3B624B16CCB7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2663,10 +2693,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -2675,13 +2705,13 @@
         <v>99418</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2726,13 @@
         <v>205327</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>220</v>
@@ -2711,13 +2741,13 @@
         <v>220598</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="M11" s="7">
         <v>420</v>
@@ -2726,13 +2756,13 @@
         <v>425925</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,7 +2818,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2800,13 +2830,13 @@
         <v>43580</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -2815,13 +2845,13 @@
         <v>67157</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -2830,13 +2860,13 @@
         <v>110737</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2881,13 @@
         <v>223951</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>240</v>
@@ -2866,13 +2896,13 @@
         <v>232377</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>462</v>
@@ -2881,13 +2911,13 @@
         <v>456328</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,7 +2973,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2955,13 +2985,13 @@
         <v>14583</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -2970,13 +3000,13 @@
         <v>23037</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -2985,13 +3015,13 @@
         <v>37620</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3036,13 @@
         <v>155695</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>143</v>
@@ -3021,7 +3051,7 @@
         <v>150869</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>100</v>
@@ -3128,10 +3158,10 @@
         <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>69</v>
@@ -3140,13 +3170,13 @@
         <v>69388</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3191,13 @@
         <v>152455</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>168</v>
@@ -3176,13 +3206,13 @@
         <v>171915</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>316</v>
@@ -3191,13 +3221,13 @@
         <v>324370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,7 +3283,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3265,13 +3295,13 @@
         <v>70989</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>80</v>
@@ -3280,13 +3310,13 @@
         <v>82035</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>151</v>
@@ -3295,13 +3325,13 @@
         <v>153024</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3346,13 @@
         <v>393336</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>444</v>
@@ -3331,13 +3361,13 @@
         <v>457333</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>827</v>
@@ -3742,7 +3772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A4CC67-3113-40B2-8C80-4399CA55BFBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C55F0C-36B8-4175-BEA4-CA9940C1915C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4039,7 +4069,7 @@
         <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4084,13 @@
         <v>360101</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>339</v>
@@ -4069,13 +4099,13 @@
         <v>367506</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>679</v>
@@ -4084,13 +4114,13 @@
         <v>727607</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4188,13 @@
         <v>49329</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -4173,13 +4203,13 @@
         <v>75593</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>115</v>
@@ -4188,13 +4218,13 @@
         <v>124922</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4239,13 @@
         <v>244335</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>237</v>
@@ -4224,13 +4254,13 @@
         <v>253159</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>479</v>
@@ -4239,13 +4269,13 @@
         <v>497494</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,7 +4331,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4313,13 +4343,13 @@
         <v>83107</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>92</v>
@@ -4328,13 +4358,13 @@
         <v>98484</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>163</v>
@@ -4343,13 +4373,13 @@
         <v>181591</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4394,13 @@
         <v>480530</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>456</v>
@@ -4379,13 +4409,13 @@
         <v>493570</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>915</v>
@@ -4394,13 +4424,13 @@
         <v>974100</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,7 +4486,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4468,13 +4498,13 @@
         <v>33530</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -4483,13 +4513,13 @@
         <v>34097</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>64</v>
@@ -4498,13 +4528,13 @@
         <v>67627</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,13 +4549,13 @@
         <v>158528</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="H17" s="7">
         <v>154</v>
@@ -4534,13 +4564,13 @@
         <v>160485</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>300</v>
@@ -4549,13 +4579,13 @@
         <v>319013</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4653,13 @@
         <v>29408</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -4638,13 +4668,13 @@
         <v>54649</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
         <v>81</v>
@@ -4653,13 +4683,13 @@
         <v>84056</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,13 +4704,13 @@
         <v>220565</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -4689,13 +4719,13 @@
         <v>210181</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M20" s="7">
         <v>411</v>
@@ -4704,13 +4734,13 @@
         <v>430747</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,7 +4796,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4778,13 +4808,13 @@
         <v>114324</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>118</v>
@@ -4793,13 +4823,13 @@
         <v>131282</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
@@ -4808,13 +4838,13 @@
         <v>245606</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,13 +4859,13 @@
         <v>460767</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>454</v>
@@ -4844,13 +4874,13 @@
         <v>494705</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>887</v>
@@ -4859,13 +4889,13 @@
         <v>955472</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4963,13 @@
         <v>81219</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -4948,13 +4978,13 @@
         <v>109277</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>285</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M25" s="7">
         <v>171</v>
@@ -4963,13 +4993,13 @@
         <v>190496</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +5014,13 @@
         <v>552686</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H26" s="7">
         <v>546</v>
@@ -4999,13 +5029,13 @@
         <v>593017</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>294</v>
       </c>
       <c r="M26" s="7">
         <v>1059</v>
@@ -5014,13 +5044,13 @@
         <v>1145703</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,13 +5118,13 @@
         <v>437146</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H28" s="7">
         <v>527</v>
@@ -5106,10 +5136,10 @@
         <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>76</v>
+        <v>301</v>
       </c>
       <c r="M28" s="7">
         <v>921</v>
@@ -5118,13 +5148,13 @@
         <v>1010844</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,28 +5169,28 @@
         <v>2477512</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H29" s="7">
         <v>2388</v>
       </c>
       <c r="I29" s="7">
-        <v>2572624</v>
+        <v>2572623</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>85</v>
+        <v>308</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M29" s="7">
         <v>4730</v>
@@ -5169,13 +5199,13 @@
         <v>5050136</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,7 +5232,7 @@
         <v>2915</v>
       </c>
       <c r="I30" s="7">
-        <v>3146322</v>
+        <v>3146321</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5255,7 +5285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08D5D5A-A544-47CE-A44A-B8AEF3DD420B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A721CDE-6055-4E85-A17F-7AC52CCDB959}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5272,7 +5302,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5379,13 +5409,13 @@
         <v>12616</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5394,13 +5424,13 @@
         <v>19739</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -5409,13 +5439,13 @@
         <v>32356</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5460,13 @@
         <v>232602</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H5" s="7">
         <v>220</v>
@@ -5445,13 +5475,13 @@
         <v>226595</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M5" s="7">
         <v>429</v>
@@ -5567,7 +5597,7 @@
         <v>338</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>339</v>
@@ -5621,7 +5651,7 @@
         <v>347</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,7 +5716,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="7">
-        <v>32417</v>
+        <v>32418</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>348</v>
@@ -5710,7 +5740,7 @@
         <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -5719,13 +5749,13 @@
         <v>62591</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,13 +5770,13 @@
         <v>258089</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H11" s="7">
         <v>276</v>
@@ -5755,13 +5785,13 @@
         <v>277591</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>361</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M11" s="7">
         <v>545</v>
@@ -5770,13 +5800,13 @@
         <v>535679</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,7 +5818,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290506</v>
+        <v>290507</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5832,7 +5862,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5844,13 +5874,13 @@
         <v>43027</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>150</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>366</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -5859,7 +5889,7 @@
         <v>56957</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>367</v>
@@ -5874,13 +5904,13 @@
         <v>99984</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>369</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,10 +5925,10 @@
         <v>287020</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>158</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>372</v>
@@ -5910,7 +5940,7 @@
         <v>291904</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>373</v>
@@ -5925,13 +5955,13 @@
         <v>578924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>174</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,7 +6017,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5999,13 +6029,13 @@
         <v>17310</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -6014,13 +6044,13 @@
         <v>25372</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -6029,13 +6059,13 @@
         <v>42682</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>124</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,13 +6080,13 @@
         <v>101912</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>127</v>
@@ -6065,13 +6095,13 @@
         <v>120128</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>228</v>
@@ -6080,13 +6110,13 @@
         <v>222040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>134</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,13 +6184,13 @@
         <v>16647</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>94</v>
+        <v>398</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -6169,13 +6199,13 @@
         <v>15938</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -6184,13 +6214,13 @@
         <v>32585</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6235,13 @@
         <v>216968</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>406</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H20" s="7">
         <v>225</v>
@@ -6220,13 +6250,13 @@
         <v>231199</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>438</v>
@@ -6235,13 +6265,13 @@
         <v>448168</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,7 +6327,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6309,13 +6339,13 @@
         <v>36422</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H22" s="7">
         <v>39</v>
@@ -6324,13 +6354,13 @@
         <v>43453</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>413</v>
+        <v>370</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -6339,13 +6369,13 @@
         <v>79875</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,13 +6390,13 @@
         <v>405885</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H23" s="7">
         <v>422</v>
@@ -6375,13 +6405,13 @@
         <v>443598</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M23" s="7">
         <v>775</v>
@@ -6390,13 +6420,13 @@
         <v>849483</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6464,13 +6494,13 @@
         <v>75864</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>430</v>
       </c>
       <c r="H25" s="7">
         <v>71</v>
@@ -6479,13 +6509,13 @@
         <v>83356</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>365</v>
+        <v>431</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M25" s="7">
         <v>142</v>
@@ -6494,13 +6524,13 @@
         <v>159220</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>234</v>
+        <v>433</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6515,28 +6545,28 @@
         <v>564388</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>437</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>564</v>
       </c>
       <c r="I26" s="7">
-        <v>607986</v>
+        <v>607985</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>372</v>
+        <v>440</v>
       </c>
       <c r="M26" s="7">
         <v>1109</v>
@@ -6545,13 +6575,13 @@
         <v>1172373</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>244</v>
+        <v>441</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,7 +6608,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691342</v>
+        <v>691341</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6619,13 +6649,13 @@
         <v>283725</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="H28" s="7">
         <v>298</v>
@@ -6634,13 +6664,13 @@
         <v>333590</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>287</v>
+        <v>447</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="M28" s="7">
         <v>571</v>
@@ -6652,10 +6682,10 @@
         <v>348</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>441</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,16 +6697,16 @@
         <v>2257</v>
       </c>
       <c r="D29" s="7">
-        <v>2380609</v>
+        <v>2380608</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>442</v>
+        <v>392</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="H29" s="7">
         <v>2429</v>
@@ -6685,28 +6715,28 @@
         <v>2533725</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>295</v>
+        <v>454</v>
       </c>
       <c r="M29" s="7">
         <v>4686</v>
       </c>
       <c r="N29" s="7">
-        <v>4914334</v>
+        <v>4914333</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>446</v>
+        <v>377</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,7 +6748,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6748,7 +6778,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6786,7 +6816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ACE5D6-49B8-421E-8F50-A503CBC22579}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD58290-8A84-4033-95FF-3920EF4049DF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6803,7 +6833,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6910,13 +6940,13 @@
         <v>26390</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
@@ -6925,13 +6955,13 @@
         <v>21583</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>36</v>
+        <v>461</v>
       </c>
       <c r="M4" s="7">
         <v>82</v>
@@ -6940,13 +6970,13 @@
         <v>47973</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>462</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6961,13 +6991,13 @@
         <v>228880</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="H5" s="7">
         <v>487</v>
@@ -6976,13 +7006,13 @@
         <v>247861</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>46</v>
+        <v>468</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="M5" s="7">
         <v>766</v>
@@ -6991,13 +7021,13 @@
         <v>476742</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>470</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,13 +7095,13 @@
         <v>40399</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -7080,13 +7110,13 @@
         <v>72512</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>18</v>
+        <v>476</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>478</v>
       </c>
       <c r="M7" s="7">
         <v>152</v>
@@ -7095,13 +7125,13 @@
         <v>112911</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,13 +7146,13 @@
         <v>467105</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="H8" s="7">
         <v>585</v>
@@ -7131,13 +7161,13 @@
         <v>467582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>485</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>486</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="M8" s="7">
         <v>915</v>
@@ -7146,13 +7176,13 @@
         <v>934687</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7220,13 +7250,13 @@
         <v>36266</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>477</v>
+        <v>130</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -7235,13 +7265,13 @@
         <v>53169</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
@@ -7250,13 +7280,13 @@
         <v>89435</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7271,13 +7301,13 @@
         <v>271067</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>485</v>
+        <v>138</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="H11" s="7">
         <v>425</v>
@@ -7286,13 +7316,13 @@
         <v>305077</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="M11" s="7">
         <v>718</v>
@@ -7301,13 +7331,13 @@
         <v>576144</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7363,7 +7393,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7375,13 +7405,13 @@
         <v>39930</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="H13" s="7">
         <v>106</v>
@@ -7390,13 +7420,13 @@
         <v>52217</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="M13" s="7">
         <v>158</v>
@@ -7405,13 +7435,13 @@
         <v>92148</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>501</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7426,13 +7456,13 @@
         <v>279720</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="H14" s="7">
         <v>488</v>
@@ -7441,13 +7471,13 @@
         <v>373935</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="M14" s="7">
         <v>724</v>
@@ -7456,13 +7486,13 @@
         <v>653654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>509</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7518,7 +7548,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7530,13 +7560,13 @@
         <v>20679</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>513</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
@@ -7545,13 +7575,13 @@
         <v>46942</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>383</v>
+        <v>525</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="M16" s="7">
         <v>151</v>
@@ -7560,13 +7590,13 @@
         <v>67621</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>516</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7581,13 +7611,13 @@
         <v>164390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>520</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="H17" s="7">
         <v>360</v>
@@ -7596,13 +7626,13 @@
         <v>177983</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>532</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M17" s="7">
         <v>589</v>
@@ -7611,13 +7641,13 @@
         <v>342373</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>524</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7685,13 +7715,13 @@
         <v>33594</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>539</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -7700,13 +7730,13 @@
         <v>29405</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="M19" s="7">
         <v>126</v>
@@ -7715,13 +7745,13 @@
         <v>62998</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>531</v>
+        <v>382</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7736,13 +7766,13 @@
         <v>227183</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>79</v>
+        <v>546</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="H20" s="7">
         <v>375</v>
@@ -7751,13 +7781,13 @@
         <v>234803</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="M20" s="7">
         <v>658</v>
@@ -7766,13 +7796,13 @@
         <v>461987</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>538</v>
+        <v>392</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7828,7 +7858,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7840,13 +7870,13 @@
         <v>77560</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>543</v>
+        <v>168</v>
       </c>
       <c r="H22" s="7">
         <v>122</v>
@@ -7855,13 +7885,13 @@
         <v>81050</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="M22" s="7">
         <v>204</v>
@@ -7870,13 +7900,13 @@
         <v>158610</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>547</v>
+        <v>464</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7891,13 +7921,13 @@
         <v>529689</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>551</v>
+        <v>176</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="H23" s="7">
         <v>801</v>
@@ -7906,13 +7936,13 @@
         <v>700659</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="M23" s="7">
         <v>1300</v>
@@ -7921,13 +7951,13 @@
         <v>1230348</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>556</v>
+        <v>471</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7995,13 +8025,13 @@
         <v>63407</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>569</v>
       </c>
       <c r="H25" s="7">
         <v>115</v>
@@ -8010,13 +8040,13 @@
         <v>79281</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="M25" s="7">
         <v>189</v>
@@ -8025,13 +8055,13 @@
         <v>142689</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8046,13 +8076,13 @@
         <v>770878</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>443</v>
+        <v>577</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="H26" s="7">
         <v>924</v>
@@ -8061,13 +8091,13 @@
         <v>772788</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="M26" s="7">
         <v>1594</v>
@@ -8076,13 +8106,13 @@
         <v>1543665</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8150,13 +8180,13 @@
         <v>338225</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>336</v>
+        <v>587</v>
       </c>
       <c r="H28" s="7">
         <v>772</v>
@@ -8165,13 +8195,13 @@
         <v>436160</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>576</v>
+        <v>36</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="M28" s="7">
         <v>1206</v>
@@ -8180,13 +8210,13 @@
         <v>774384</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>578</v>
+        <v>447</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>579</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8201,13 +8231,13 @@
         <v>2938913</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>345</v>
+        <v>592</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="H29" s="7">
         <v>4445</v>
@@ -8216,13 +8246,13 @@
         <v>3280688</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>584</v>
+        <v>46</v>
       </c>
       <c r="M29" s="7">
         <v>7264</v>
@@ -8231,13 +8261,13 @@
         <v>6219602</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>569</v>
+        <v>596</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>585</v>
+        <v>436</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>586</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F960ED0-A7B3-4F6A-AFB3-396036B9CE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFB991F4-A72A-4A53-9335-E74E86719090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0165C57B-1BFA-4C80-9844-6B51B499F79D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D03C53E3-A7B1-4AA0-8163-DF99E7632402}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="601">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,19 +77,19 @@
     <t>18,23%</t>
   </si>
   <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
   </si>
   <si>
     <t>15,41%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
   </si>
   <si>
     <t>16,79%</t>
@@ -98,7 +98,7 @@
     <t>13,41%</t>
   </si>
   <si>
-    <t>20,77%</t>
+    <t>21,01%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,25 +107,25 @@
     <t>81,77%</t>
   </si>
   <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
   </si>
   <si>
     <t>84,59%</t>
   </si>
   <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
   </si>
   <si>
     <t>83,21%</t>
   </si>
   <si>
-    <t>79,23%</t>
+    <t>78,99%</t>
   </si>
   <si>
     <t>86,59%</t>
@@ -140,1696 +140,1708 @@
     <t>14,22%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
   </si>
   <si>
     <t>13,51%</t>
   </si>
   <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
     <t>10,52%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
   </si>
   <si>
     <t>89,48%</t>
   </si>
   <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
+    <t>88,93%</t>
   </si>
   <si>
     <t>89,71%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58620AF-98FA-4C9D-BC93-3B624B16CCB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F640EA-B0BE-4666-9A40-1B87B739D825}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2693,10 +2705,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -2705,13 +2717,13 @@
         <v>99418</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,13 +2738,13 @@
         <v>205327</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>220</v>
@@ -2741,13 +2753,13 @@
         <v>220598</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>420</v>
@@ -2756,13 +2768,13 @@
         <v>425925</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,7 +2830,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2830,13 +2842,13 @@
         <v>43580</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -2845,13 +2857,13 @@
         <v>67157</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -2860,13 +2872,13 @@
         <v>110737</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,10 +2893,10 @@
         <v>223951</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>79</v>
@@ -3313,10 +3325,10 @@
         <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>151</v>
@@ -3325,13 +3337,13 @@
         <v>153024</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3358,13 @@
         <v>393336</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>444</v>
@@ -3361,13 +3373,13 @@
         <v>457333</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>827</v>
@@ -3376,13 +3388,13 @@
         <v>850668</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,7 +3450,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3450,13 +3462,13 @@
         <v>43301</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
@@ -3465,13 +3477,13 @@
         <v>78587</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>119</v>
@@ -3480,13 +3492,13 @@
         <v>121888</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3513,13 @@
         <v>482251</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>491</v>
@@ -3516,13 +3528,13 @@
         <v>513825</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>968</v>
@@ -3531,13 +3543,13 @@
         <v>996075</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3617,13 @@
         <v>333652</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H28" s="7">
         <v>433</v>
@@ -3620,13 +3632,13 @@
         <v>442221</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>768</v>
@@ -3635,10 +3647,10 @@
         <v>775873</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>168</v>
@@ -3656,13 +3668,13 @@
         <v>2121090</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>2246</v>
@@ -3671,13 +3683,13 @@
         <v>2298716</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>4318</v>
@@ -3686,13 +3698,13 @@
         <v>4419806</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,7 +3760,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3772,7 +3784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C55F0C-36B8-4175-BEA4-CA9940C1915C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93001E3-9366-4298-8CEF-51B466A43026}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3789,7 +3801,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3894,39 +3906,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,39 +3951,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,39 +3996,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4045,13 @@
         <v>46229</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>63</v>
@@ -4048,13 +4060,13 @@
         <v>70317</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>105</v>
@@ -4063,13 +4075,13 @@
         <v>116546</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>68</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4096,13 @@
         <v>360101</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>339</v>
@@ -4099,13 +4111,13 @@
         <v>367506</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>679</v>
@@ -4114,13 +4126,13 @@
         <v>727607</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4200,13 @@
         <v>49329</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -4203,13 +4215,13 @@
         <v>75593</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>115</v>
@@ -4218,13 +4230,13 @@
         <v>124922</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4251,13 @@
         <v>244335</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>237</v>
@@ -4254,13 +4266,13 @@
         <v>253159</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>479</v>
@@ -4269,13 +4281,13 @@
         <v>497494</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,7 +4343,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4343,13 +4355,13 @@
         <v>83107</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7">
         <v>92</v>
@@ -4358,13 +4370,13 @@
         <v>98484</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>163</v>
@@ -4373,13 +4385,13 @@
         <v>181591</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4406,13 @@
         <v>480530</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>456</v>
@@ -4409,13 +4421,13 @@
         <v>493570</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>915</v>
@@ -4424,13 +4436,13 @@
         <v>974100</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4510,13 @@
         <v>33530</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -4513,13 +4525,13 @@
         <v>34097</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>64</v>
@@ -4528,13 +4540,13 @@
         <v>67627</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4561,13 @@
         <v>158528</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>154</v>
@@ -4564,13 +4576,13 @@
         <v>160485</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>300</v>
@@ -4579,13 +4591,13 @@
         <v>319013</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +4665,13 @@
         <v>29408</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -4668,13 +4680,13 @@
         <v>54649</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M19" s="7">
         <v>81</v>
@@ -4683,13 +4695,13 @@
         <v>84056</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4716,13 @@
         <v>220565</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -4719,13 +4731,13 @@
         <v>210181</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M20" s="7">
         <v>411</v>
@@ -4734,13 +4746,13 @@
         <v>430747</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>154</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4820,13 @@
         <v>114324</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H22" s="7">
         <v>118</v>
@@ -4823,13 +4835,13 @@
         <v>131282</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
@@ -4838,13 +4850,13 @@
         <v>245606</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4871,13 @@
         <v>460767</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="H23" s="7">
         <v>454</v>
@@ -4874,13 +4886,13 @@
         <v>494705</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M23" s="7">
         <v>887</v>
@@ -4889,13 +4901,13 @@
         <v>955472</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,7 +4963,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4963,13 +4975,13 @@
         <v>81219</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -4978,13 +4990,13 @@
         <v>109277</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M25" s="7">
         <v>171</v>
@@ -4993,13 +5005,13 @@
         <v>190496</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5026,13 @@
         <v>552686</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H26" s="7">
         <v>546</v>
@@ -5029,13 +5041,13 @@
         <v>593017</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M26" s="7">
         <v>1059</v>
@@ -5044,13 +5056,13 @@
         <v>1145703</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5130,13 @@
         <v>437146</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H28" s="7">
         <v>527</v>
@@ -5136,10 +5148,10 @@
         <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M28" s="7">
         <v>921</v>
@@ -5148,13 +5160,13 @@
         <v>1010844</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5181,13 @@
         <v>2477512</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H29" s="7">
         <v>2388</v>
@@ -5187,10 +5199,10 @@
         <v>21</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M29" s="7">
         <v>4730</v>
@@ -5199,13 +5211,13 @@
         <v>5050136</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,7 +5273,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5285,7 +5297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A721CDE-6055-4E85-A17F-7AC52CCDB959}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB3A292-6CCA-4277-B119-0EBAB0940BDD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5302,7 +5314,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5409,13 +5421,13 @@
         <v>12616</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5424,13 +5436,13 @@
         <v>19739</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -5439,13 +5451,13 @@
         <v>32356</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5472,13 @@
         <v>232602</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>220</v>
@@ -5475,13 +5487,13 @@
         <v>226595</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M5" s="7">
         <v>429</v>
@@ -5490,13 +5502,13 @@
         <v>459195</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,13 +5576,13 @@
         <v>49422</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>52</v>
@@ -5579,13 +5591,13 @@
         <v>58602</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>98</v>
@@ -5594,13 +5606,13 @@
         <v>108024</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,13 +5627,13 @@
         <v>313743</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>320</v>
@@ -5630,13 +5642,13 @@
         <v>334725</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>616</v>
@@ -5645,13 +5657,13 @@
         <v>648468</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,13 +5731,13 @@
         <v>32418</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -5734,13 +5746,13 @@
         <v>30173</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -5749,13 +5761,13 @@
         <v>62591</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5782,13 @@
         <v>258089</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H11" s="7">
         <v>276</v>
@@ -5785,13 +5797,13 @@
         <v>277591</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M11" s="7">
         <v>545</v>
@@ -5800,13 +5812,13 @@
         <v>535679</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,7 +5874,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5874,13 +5886,13 @@
         <v>43027</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>150</v>
+        <v>364</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -5889,7 +5901,7 @@
         <v>56957</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>367</v>
@@ -5925,13 +5937,13 @@
         <v>287020</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>158</v>
+        <v>372</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>244</v>
+        <v>373</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H14" s="7">
         <v>275</v>
@@ -5940,13 +5952,13 @@
         <v>291904</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>546</v>
@@ -5955,13 +5967,13 @@
         <v>578924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,13 +6041,13 @@
         <v>17310</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -6044,13 +6056,13 @@
         <v>25372</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>212</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -6059,13 +6071,13 @@
         <v>42682</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,13 +6092,13 @@
         <v>101912</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>127</v>
@@ -6095,13 +6107,13 @@
         <v>120128</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>228</v>
@@ -6190,7 +6202,7 @@
         <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>398</v>
+        <v>146</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -6199,13 +6211,13 @@
         <v>15938</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -6214,13 +6226,13 @@
         <v>32585</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6247,13 @@
         <v>216968</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H20" s="7">
         <v>225</v>
@@ -6250,13 +6262,13 @@
         <v>231199</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>438</v>
@@ -6265,13 +6277,13 @@
         <v>448168</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,13 +6351,13 @@
         <v>36422</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H22" s="7">
         <v>39</v>
@@ -6354,13 +6366,13 @@
         <v>43453</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -6369,13 +6381,13 @@
         <v>79875</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>402</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>420</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6402,13 @@
         <v>405885</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H23" s="7">
         <v>422</v>
@@ -6405,10 +6417,10 @@
         <v>443598</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>425</v>
@@ -6423,10 +6435,10 @@
         <v>426</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,7 +6494,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6509,13 +6521,13 @@
         <v>83356</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M25" s="7">
         <v>142</v>
@@ -6524,13 +6536,13 @@
         <v>159220</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,13 +6557,13 @@
         <v>564388</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H26" s="7">
         <v>564</v>
@@ -6560,13 +6572,13 @@
         <v>607985</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>377</v>
+        <v>440</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M26" s="7">
         <v>1109</v>
@@ -6575,13 +6587,13 @@
         <v>1172373</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6661,13 @@
         <v>283725</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>382</v>
+        <v>448</v>
       </c>
       <c r="H28" s="7">
         <v>298</v>
@@ -6664,13 +6676,13 @@
         <v>333590</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M28" s="7">
         <v>571</v>
@@ -6679,13 +6691,13 @@
         <v>617315</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>370</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,16 +6709,16 @@
         <v>2257</v>
       </c>
       <c r="D29" s="7">
-        <v>2380608</v>
+        <v>2380609</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>392</v>
+        <v>455</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="H29" s="7">
         <v>2429</v>
@@ -6715,13 +6727,13 @@
         <v>2533725</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="M29" s="7">
         <v>4686</v>
@@ -6730,13 +6742,13 @@
         <v>4914333</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>377</v>
+        <v>460</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,7 +6760,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6792,7 +6804,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6816,7 +6828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD58290-8A84-4033-95FF-3920EF4049DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76589C9-FE30-47F7-9BC2-D896BDC4E222}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6833,7 +6845,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6940,13 +6952,13 @@
         <v>26390</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
@@ -6955,13 +6967,13 @@
         <v>21583</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="M4" s="7">
         <v>82</v>
@@ -6970,13 +6982,13 @@
         <v>47973</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,13 +7003,13 @@
         <v>228880</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="H5" s="7">
         <v>487</v>
@@ -7006,13 +7018,13 @@
         <v>247861</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="M5" s="7">
         <v>766</v>
@@ -7021,13 +7033,13 @@
         <v>476742</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,13 +7107,13 @@
         <v>40399</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -7110,13 +7122,13 @@
         <v>72512</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>477</v>
+        <v>414</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="M7" s="7">
         <v>152</v>
@@ -7125,13 +7137,13 @@
         <v>112911</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,13 +7158,13 @@
         <v>467105</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="H8" s="7">
         <v>585</v>
@@ -7161,13 +7173,13 @@
         <v>467582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>487</v>
+        <v>421</v>
       </c>
       <c r="M8" s="7">
         <v>915</v>
@@ -7176,13 +7188,13 @@
         <v>934687</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7250,13 +7262,13 @@
         <v>36266</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -7265,13 +7277,13 @@
         <v>53169</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
@@ -7280,13 +7292,13 @@
         <v>89435</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,13 +7313,13 @@
         <v>271067</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="H11" s="7">
         <v>425</v>
@@ -7316,13 +7328,13 @@
         <v>305077</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="M11" s="7">
         <v>718</v>
@@ -7331,13 +7343,13 @@
         <v>576144</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7393,7 +7405,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7405,13 +7417,13 @@
         <v>39930</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H13" s="7">
         <v>106</v>
@@ -7420,13 +7432,13 @@
         <v>52217</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="M13" s="7">
         <v>158</v>
@@ -7435,13 +7447,13 @@
         <v>92148</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,13 +7468,13 @@
         <v>279720</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="H14" s="7">
         <v>488</v>
@@ -7471,13 +7483,13 @@
         <v>373935</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="M14" s="7">
         <v>724</v>
@@ -7486,13 +7498,13 @@
         <v>653654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>527</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7560,13 +7572,13 @@
         <v>20679</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>162</v>
+        <v>348</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
@@ -7575,13 +7587,13 @@
         <v>46942</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="M16" s="7">
         <v>151</v>
@@ -7590,13 +7602,13 @@
         <v>67621</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>534</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,13 +7623,13 @@
         <v>164390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>170</v>
+        <v>356</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H17" s="7">
         <v>360</v>
@@ -7626,13 +7638,13 @@
         <v>177983</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="M17" s="7">
         <v>589</v>
@@ -7641,13 +7653,13 @@
         <v>342373</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>542</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7715,13 +7727,13 @@
         <v>33594</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>537</v>
+        <v>451</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -7730,13 +7742,13 @@
         <v>29405</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>541</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="M19" s="7">
         <v>126</v>
@@ -7745,13 +7757,13 @@
         <v>62998</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>382</v>
+        <v>549</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,13 +7778,13 @@
         <v>227183</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>545</v>
+        <v>458</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="H20" s="7">
         <v>375</v>
@@ -7781,13 +7793,13 @@
         <v>234803</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>550</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>658</v>
@@ -7796,13 +7808,13 @@
         <v>461987</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>392</v>
+        <v>556</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7870,13 +7882,13 @@
         <v>77560</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>553</v>
+        <v>196</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>168</v>
+        <v>560</v>
       </c>
       <c r="H22" s="7">
         <v>122</v>
@@ -7885,13 +7897,13 @@
         <v>81050</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>555</v>
+        <v>450</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>557</v>
+        <v>12</v>
       </c>
       <c r="M22" s="7">
         <v>204</v>
@@ -7900,13 +7912,13 @@
         <v>158610</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7921,13 +7933,13 @@
         <v>529689</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>560</v>
+        <v>205</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>176</v>
+        <v>564</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="H23" s="7">
         <v>801</v>
@@ -7936,13 +7948,13 @@
         <v>700659</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>562</v>
+        <v>459</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>563</v>
+        <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M23" s="7">
         <v>1300</v>
@@ -7951,13 +7963,13 @@
         <v>1230348</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,7 +8025,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8025,13 +8037,13 @@
         <v>63407</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H25" s="7">
         <v>115</v>
@@ -8040,13 +8052,13 @@
         <v>79281</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M25" s="7">
         <v>189</v>
@@ -8055,13 +8067,13 @@
         <v>142689</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8076,13 +8088,13 @@
         <v>770878</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H26" s="7">
         <v>924</v>
@@ -8091,13 +8103,13 @@
         <v>772788</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M26" s="7">
         <v>1594</v>
@@ -8106,13 +8118,13 @@
         <v>1543665</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8180,13 +8192,13 @@
         <v>338225</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H28" s="7">
         <v>772</v>
@@ -8195,13 +8207,13 @@
         <v>436160</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>588</v>
+        <v>370</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>36</v>
+        <v>590</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M28" s="7">
         <v>1206</v>
@@ -8210,10 +8222,10 @@
         <v>774384</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>447</v>
+        <v>593</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>428</v>
@@ -8231,13 +8243,13 @@
         <v>2938913</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="H29" s="7">
         <v>4445</v>
@@ -8246,13 +8258,13 @@
         <v>3280688</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>594</v>
+        <v>379</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>46</v>
+        <v>598</v>
       </c>
       <c r="M29" s="7">
         <v>7264</v>
@@ -8261,13 +8273,13 @@
         <v>6219602</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>454</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8323,7 +8335,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFB991F4-A72A-4A53-9335-E74E86719090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8454A21-2CAB-462E-88BC-B93ECF440528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D03C53E3-A7B1-4AA0-8163-DF99E7632402}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3CD0359C-F50F-41A6-B379-7FBAA7CE7628}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="587">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
   </si>
   <si>
     <t>15,41%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
   </si>
   <si>
     <t>16,79%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>81,77%</t>
   </si>
   <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
   </si>
   <si>
     <t>84,59%</t>
   </si>
   <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
   </si>
   <si>
     <t>83,21%</t>
   </si>
   <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>14,22%</t>
   </si>
   <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
   </si>
   <si>
     <t>13,51%</t>
   </si>
   <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
   </si>
   <si>
     <t>86,49%</t>
   </si>
   <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>86,15%</t>
   </si>
   <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>13,19%</t>
   </si>
   <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
   </si>
   <si>
     <t>23,62%</t>
   </si>
   <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
   </si>
   <si>
     <t>18,92%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
   </si>
   <si>
     <t>86,81%</t>
   </si>
   <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
   </si>
   <si>
     <t>76,38%</t>
   </si>
   <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
   </si>
   <si>
     <t>81,08%</t>
   </si>
   <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,1594 +254,1552 @@
     <t>16,29%</t>
   </si>
   <si>
-    <t>11,89%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
   </si>
   <si>
     <t>22,42%</t>
   </si>
   <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
   </si>
   <si>
     <t>19,53%</t>
   </si>
   <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
   </si>
   <si>
     <t>13,59%</t>
   </si>
   <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
   </si>
   <si>
     <t>86,41%</t>
   </si>
   <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
   <si>
     <t>18,91%</t>
   </si>
   <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
   </si>
   <si>
     <t>81,09%</t>
   </si>
   <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
   </si>
   <si>
     <t>12,77%</t>
   </si>
   <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
   </si>
   <si>
     <t>87,23%</t>
   </si>
   <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
+    <t>89,73%</t>
   </si>
 </sst>
 </file>
@@ -2253,7 +2211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F640EA-B0BE-4666-9A40-1B87B739D825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C9F5E7-E922-49A1-8899-B57B4CE93DE5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2848,7 +2806,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
@@ -2857,13 +2815,13 @@
         <v>67157</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -2872,13 +2830,13 @@
         <v>110737</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2851,13 @@
         <v>223951</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>240</v>
@@ -2908,13 +2866,13 @@
         <v>232377</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>462</v>
@@ -2923,13 +2881,13 @@
         <v>456328</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,7 +2943,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2997,13 +2955,13 @@
         <v>14583</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -3012,13 +2970,13 @@
         <v>23037</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -3027,13 +2985,13 @@
         <v>37620</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,13 +3006,13 @@
         <v>155695</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>143</v>
@@ -3063,7 +3021,7 @@
         <v>150869</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>100</v>
@@ -3170,10 +3128,10 @@
         <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>69</v>
@@ -3182,13 +3140,13 @@
         <v>69388</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3161,13 @@
         <v>152455</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>168</v>
@@ -3218,13 +3176,13 @@
         <v>171915</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="M20" s="7">
         <v>316</v>
@@ -3233,13 +3191,13 @@
         <v>324370</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,7 +3253,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3307,13 +3265,13 @@
         <v>70989</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>80</v>
@@ -3322,13 +3280,13 @@
         <v>82035</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>151</v>
@@ -3337,13 +3295,13 @@
         <v>153024</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3316,13 @@
         <v>393336</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>444</v>
@@ -3373,13 +3331,13 @@
         <v>457333</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>827</v>
@@ -3388,13 +3346,13 @@
         <v>850668</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,7 +3408,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3462,13 +3420,13 @@
         <v>43301</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
@@ -3477,13 +3435,13 @@
         <v>78587</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>119</v>
@@ -3492,13 +3450,13 @@
         <v>121888</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3471,13 @@
         <v>482251</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>491</v>
@@ -3528,13 +3486,13 @@
         <v>513825</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>968</v>
@@ -3543,13 +3501,13 @@
         <v>996075</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3575,13 @@
         <v>333652</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H28" s="7">
         <v>433</v>
@@ -3632,13 +3590,13 @@
         <v>442221</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>768</v>
@@ -3647,10 +3605,10 @@
         <v>775873</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>168</v>
@@ -3668,13 +3626,13 @@
         <v>2121090</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>2246</v>
@@ -3683,13 +3641,13 @@
         <v>2298716</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>4318</v>
@@ -3698,13 +3656,13 @@
         <v>4419806</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,7 +3718,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3784,7 +3742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93001E3-9366-4298-8CEF-51B466A43026}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061EECB9-19E6-423C-BC50-04AAC8950BC4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3801,7 +3759,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3906,39 +3864,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,39 +3909,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,39 +3954,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,13 +4003,13 @@
         <v>46229</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>63</v>
@@ -4060,13 +4018,13 @@
         <v>70317</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>105</v>
@@ -4075,13 +4033,13 @@
         <v>116546</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4054,13 @@
         <v>360101</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>339</v>
@@ -4111,13 +4069,13 @@
         <v>367506</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>679</v>
@@ -4126,13 +4084,13 @@
         <v>727607</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,13 +4158,13 @@
         <v>49329</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -4215,13 +4173,13 @@
         <v>75593</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>115</v>
@@ -4230,13 +4188,13 @@
         <v>124922</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,13 +4209,13 @@
         <v>244335</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>237</v>
@@ -4266,13 +4224,13 @@
         <v>253159</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>479</v>
@@ -4281,13 +4239,13 @@
         <v>497494</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,13 +4313,13 @@
         <v>83107</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>92</v>
@@ -4370,13 +4328,13 @@
         <v>98484</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>163</v>
@@ -4385,13 +4343,13 @@
         <v>181591</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,13 +4364,13 @@
         <v>480530</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>456</v>
@@ -4421,13 +4379,13 @@
         <v>493570</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>915</v>
@@ -4436,13 +4394,13 @@
         <v>974100</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,7 +4456,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4510,13 +4468,13 @@
         <v>33530</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -4525,13 +4483,13 @@
         <v>34097</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>64</v>
@@ -4540,13 +4498,13 @@
         <v>67627</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,13 +4519,13 @@
         <v>158528</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>154</v>
@@ -4576,13 +4534,13 @@
         <v>160485</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>300</v>
@@ -4591,13 +4549,13 @@
         <v>319013</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4623,13 @@
         <v>29408</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -4680,13 +4638,13 @@
         <v>54649</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
         <v>81</v>
@@ -4695,13 +4653,13 @@
         <v>84056</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4674,13 @@
         <v>220565</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -4731,13 +4689,13 @@
         <v>210181</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>411</v>
@@ -4746,13 +4704,13 @@
         <v>430747</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,7 +4766,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4820,13 +4778,13 @@
         <v>114324</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>118</v>
@@ -4835,13 +4793,13 @@
         <v>131282</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
@@ -4850,13 +4808,13 @@
         <v>245606</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4829,13 @@
         <v>460767</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>454</v>
@@ -4886,13 +4844,13 @@
         <v>494705</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>887</v>
@@ -4901,13 +4859,13 @@
         <v>955472</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,7 +4921,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4975,13 +4933,13 @@
         <v>81219</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -4990,13 +4948,13 @@
         <v>109277</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>279</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>171</v>
@@ -5005,13 +4963,13 @@
         <v>190496</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +4984,13 @@
         <v>552686</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="H26" s="7">
         <v>546</v>
@@ -5041,13 +4999,13 @@
         <v>593017</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>289</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1059</v>
@@ -5056,13 +5014,13 @@
         <v>1145703</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,13 +5088,13 @@
         <v>437146</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>527</v>
@@ -5148,10 +5106,10 @@
         <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="M28" s="7">
         <v>921</v>
@@ -5160,13 +5118,13 @@
         <v>1010844</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,28 +5139,28 @@
         <v>2477512</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H29" s="7">
         <v>2388</v>
       </c>
       <c r="I29" s="7">
-        <v>2572623</v>
+        <v>2572624</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>304</v>
+        <v>85</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M29" s="7">
         <v>4730</v>
@@ -5211,13 +5169,13 @@
         <v>5050136</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,7 +5202,7 @@
         <v>2915</v>
       </c>
       <c r="I30" s="7">
-        <v>3146321</v>
+        <v>3146322</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5273,7 +5231,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5297,7 +5255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB3A292-6CCA-4277-B119-0EBAB0940BDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD608DE-376B-4821-934A-3DBFD47A540C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5314,7 +5272,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5421,13 +5379,13 @@
         <v>12616</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5436,13 +5394,13 @@
         <v>19739</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -5451,13 +5409,13 @@
         <v>32356</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5430,13 @@
         <v>232602</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H5" s="7">
         <v>220</v>
@@ -5487,10 +5445,10 @@
         <v>226595</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>324</v>
@@ -5502,13 +5460,13 @@
         <v>459195</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5534,13 @@
         <v>49422</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H7" s="7">
         <v>52</v>
@@ -5591,13 +5549,13 @@
         <v>58602</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M7" s="7">
         <v>98</v>
@@ -5606,13 +5564,13 @@
         <v>108024</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>335</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,13 +5585,13 @@
         <v>313743</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H8" s="7">
         <v>320</v>
@@ -5642,13 +5600,13 @@
         <v>334725</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M8" s="7">
         <v>616</v>
@@ -5657,13 +5615,13 @@
         <v>648468</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,16 +5686,16 @@
         <v>34</v>
       </c>
       <c r="D10" s="7">
-        <v>32418</v>
+        <v>32417</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -5746,13 +5704,13 @@
         <v>30173</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>351</v>
+        <v>38</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -5761,13 +5719,13 @@
         <v>62591</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5740,13 @@
         <v>258089</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H11" s="7">
         <v>276</v>
@@ -5797,10 +5755,10 @@
         <v>277591</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>47</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>360</v>
@@ -5830,7 +5788,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290507</v>
+        <v>290506</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5901,7 +5859,7 @@
         <v>56957</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>367</v>
@@ -5916,13 +5874,13 @@
         <v>99984</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>370</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>371</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5895,13 @@
         <v>287020</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H14" s="7">
         <v>275</v>
@@ -5952,13 +5910,13 @@
         <v>291904</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>546</v>
@@ -5967,13 +5925,13 @@
         <v>578924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>377</v>
+        <v>174</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,7 +5987,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6041,13 +5999,13 @@
         <v>17310</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -6056,13 +6014,13 @@
         <v>25372</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>212</v>
+        <v>380</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -6071,13 +6029,13 @@
         <v>42682</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>386</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6050,13 @@
         <v>101912</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H17" s="7">
         <v>127</v>
@@ -6107,13 +6065,13 @@
         <v>120128</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>219</v>
+        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>228</v>
@@ -6122,13 +6080,13 @@
         <v>222040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6154,13 @@
         <v>16647</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -6211,13 +6169,13 @@
         <v>15938</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -6226,13 +6184,13 @@
         <v>32585</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6205,13 @@
         <v>216968</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
         <v>225</v>
@@ -6262,13 +6220,13 @@
         <v>231199</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>438</v>
@@ -6277,13 +6235,13 @@
         <v>448168</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,7 +6297,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6351,13 +6309,13 @@
         <v>36422</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
         <v>39</v>
@@ -6366,13 +6324,13 @@
         <v>43453</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -6381,13 +6339,13 @@
         <v>79875</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>15</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6360,13 @@
         <v>405885</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H23" s="7">
         <v>422</v>
@@ -6417,13 +6375,13 @@
         <v>443598</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M23" s="7">
         <v>775</v>
@@ -6432,13 +6390,13 @@
         <v>849483</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>26</v>
+        <v>424</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,7 +6452,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6506,13 +6464,13 @@
         <v>75864</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>430</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>71</v>
@@ -6521,13 +6479,13 @@
         <v>83356</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>431</v>
+        <v>380</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>432</v>
+        <v>365</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M25" s="7">
         <v>142</v>
@@ -6536,13 +6494,13 @@
         <v>159220</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>434</v>
+        <v>234</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,28 +6515,28 @@
         <v>564388</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>438</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="H26" s="7">
         <v>564</v>
       </c>
       <c r="I26" s="7">
-        <v>607985</v>
+        <v>607986</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>440</v>
+        <v>389</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>442</v>
+        <v>372</v>
       </c>
       <c r="M26" s="7">
         <v>1109</v>
@@ -6587,13 +6545,13 @@
         <v>1172373</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>443</v>
+        <v>244</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6620,7 +6578,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691341</v>
+        <v>691342</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6661,13 +6619,13 @@
         <v>283725</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="H28" s="7">
         <v>298</v>
@@ -6676,13 +6634,13 @@
         <v>333590</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>450</v>
+        <v>287</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M28" s="7">
         <v>571</v>
@@ -6691,13 +6649,13 @@
         <v>617315</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6670,13 @@
         <v>2380609</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="H29" s="7">
         <v>2429</v>
@@ -6727,28 +6685,28 @@
         <v>2533725</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>459</v>
+        <v>295</v>
       </c>
       <c r="M29" s="7">
         <v>4686</v>
       </c>
       <c r="N29" s="7">
-        <v>4914333</v>
+        <v>4914334</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,7 +6748,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6804,7 +6762,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6828,7 +6786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76589C9-FE30-47F7-9BC2-D896BDC4E222}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6F39BA-7894-4741-B66E-EC91ED274094}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6845,7 +6803,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6952,13 +6910,13 @@
         <v>26390</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
@@ -6967,13 +6925,13 @@
         <v>21583</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>467</v>
+        <v>36</v>
       </c>
       <c r="M4" s="7">
         <v>82</v>
@@ -6982,13 +6940,13 @@
         <v>47973</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>468</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7003,13 +6961,13 @@
         <v>228880</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="H5" s="7">
         <v>487</v>
@@ -7018,13 +6976,13 @@
         <v>247861</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>474</v>
+        <v>46</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="M5" s="7">
         <v>766</v>
@@ -7033,13 +6991,13 @@
         <v>476742</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>476</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7065,13 @@
         <v>40399</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -7122,13 +7080,13 @@
         <v>72512</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>482</v>
+        <v>18</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>483</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>152</v>
@@ -7137,13 +7095,13 @@
         <v>112911</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7116,13 @@
         <v>467105</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="H8" s="7">
         <v>585</v>
@@ -7173,13 +7131,13 @@
         <v>467582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>490</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>491</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
       <c r="M8" s="7">
         <v>915</v>
@@ -7188,13 +7146,13 @@
         <v>934687</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,13 +7220,13 @@
         <v>36266</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>477</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -7277,13 +7235,13 @@
         <v>53169</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
@@ -7292,13 +7250,13 @@
         <v>89435</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,13 +7271,13 @@
         <v>271067</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>140</v>
+        <v>485</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="H11" s="7">
         <v>425</v>
@@ -7328,13 +7286,13 @@
         <v>305077</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="M11" s="7">
         <v>718</v>
@@ -7343,13 +7301,13 @@
         <v>576144</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7417,13 +7375,13 @@
         <v>39930</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="H13" s="7">
         <v>106</v>
@@ -7432,13 +7390,13 @@
         <v>52217</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="M13" s="7">
         <v>158</v>
@@ -7447,13 +7405,13 @@
         <v>92148</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,13 +7426,13 @@
         <v>279720</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="H14" s="7">
         <v>488</v>
@@ -7483,13 +7441,13 @@
         <v>373935</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="M14" s="7">
         <v>724</v>
@@ -7498,13 +7456,13 @@
         <v>653654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7560,7 +7518,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7572,13 +7530,13 @@
         <v>20679</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>348</v>
+        <v>513</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
@@ -7587,13 +7545,13 @@
         <v>46942</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>531</v>
+        <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="M16" s="7">
         <v>151</v>
@@ -7602,13 +7560,13 @@
         <v>67621</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,13 +7581,13 @@
         <v>164390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>356</v>
+        <v>520</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="H17" s="7">
         <v>360</v>
@@ -7638,13 +7596,13 @@
         <v>177983</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>539</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="M17" s="7">
         <v>589</v>
@@ -7653,13 +7611,13 @@
         <v>342373</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7727,13 +7685,13 @@
         <v>33594</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>451</v>
+        <v>527</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>546</v>
+        <v>70</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -7742,13 +7700,13 @@
         <v>29405</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>312</v>
+        <v>530</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="M19" s="7">
         <v>126</v>
@@ -7757,13 +7715,13 @@
         <v>62998</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7778,13 +7736,13 @@
         <v>227183</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>458</v>
+        <v>534</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>552</v>
+        <v>79</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="H20" s="7">
         <v>375</v>
@@ -7793,13 +7751,13 @@
         <v>234803</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>537</v>
       </c>
       <c r="M20" s="7">
         <v>658</v>
@@ -7808,13 +7766,13 @@
         <v>461987</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7870,7 +7828,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7882,13 +7840,13 @@
         <v>77560</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>196</v>
+        <v>541</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="H22" s="7">
         <v>122</v>
@@ -7897,13 +7855,13 @@
         <v>81050</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>450</v>
+        <v>544</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>12</v>
+        <v>546</v>
       </c>
       <c r="M22" s="7">
         <v>204</v>
@@ -7912,13 +7870,13 @@
         <v>158610</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>470</v>
+        <v>547</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7933,13 +7891,13 @@
         <v>529689</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>205</v>
+        <v>550</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="H23" s="7">
         <v>801</v>
@@ -7948,13 +7906,13 @@
         <v>700659</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>459</v>
+        <v>553</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>23</v>
+        <v>554</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="M23" s="7">
         <v>1300</v>
@@ -7963,13 +7921,13 @@
         <v>1230348</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>477</v>
+        <v>556</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8025,7 +7983,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8037,13 +7995,13 @@
         <v>63407</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>571</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>115</v>
@@ -8052,13 +8010,13 @@
         <v>79281</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="M25" s="7">
         <v>189</v>
@@ -8067,13 +8025,13 @@
         <v>142689</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8088,13 +8046,13 @@
         <v>770878</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>579</v>
+        <v>443</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="H26" s="7">
         <v>924</v>
@@ -8103,13 +8061,13 @@
         <v>772788</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="M26" s="7">
         <v>1594</v>
@@ -8118,13 +8076,13 @@
         <v>1543665</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8192,13 +8150,13 @@
         <v>338225</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>589</v>
+        <v>336</v>
       </c>
       <c r="H28" s="7">
         <v>772</v>
@@ -8207,13 +8165,13 @@
         <v>436160</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>370</v>
+        <v>575</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="M28" s="7">
         <v>1206</v>
@@ -8222,13 +8180,13 @@
         <v>774384</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>428</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8243,13 +8201,13 @@
         <v>2938913</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>595</v>
+        <v>345</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="H29" s="7">
         <v>4445</v>
@@ -8258,13 +8216,13 @@
         <v>3280688</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>379</v>
+        <v>582</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="M29" s="7">
         <v>7264</v>
@@ -8273,13 +8231,13 @@
         <v>6219602</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>437</v>
+        <v>585</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8335,7 +8293,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8454A21-2CAB-462E-88BC-B93ECF440528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC945439-87CF-4F24-B5CA-2F8B847C5F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3CD0359C-F50F-41A6-B379-7FBAA7CE7628}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A3737064-24FA-48A0-9DCB-591722AC8AD4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="600">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -581,7 +581,58 @@
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2012 (Tasa respuesta: 86,84%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
   </si>
   <si>
     <t>11,38%</t>
@@ -692,480 +743,480 @@
     <t>82,87%</t>
   </si>
   <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
   </si>
   <si>
     <t>18,04%</t>
   </si>
   <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
   </si>
   <si>
     <t>81,96%</t>
   </si>
   <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
     <t>87,72%</t>
   </si>
   <si>
@@ -1229,9 +1280,6 @@
     <t>3,7%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
     <t>6,78%</t>
   </si>
   <si>
@@ -1250,9 +1298,6 @@
     <t>93,55%</t>
   </si>
   <si>
-    <t>89,35%</t>
-  </si>
-  <si>
     <t>96,3%</t>
   </si>
   <si>
@@ -1388,418 +1433,412 @@
     <t>Población según si el motivo por su última visita al dentista fue por poner fundas, puentes u otro tipo de prótesis en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
   <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
     <t>10,34%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
+    <t>85,77%</t>
   </si>
   <si>
     <t>91,48%</t>
   </si>
   <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
 </sst>
 </file>
@@ -2211,7 +2250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C9F5E7-E922-49A1-8899-B57B4CE93DE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105D730D-8E25-4324-BD08-6DE09B704A55}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3742,7 +3781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061EECB9-19E6-423C-BC50-04AAC8950BC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D5AA13-29F6-470F-91E1-E558EEA2D5F0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3860,43 +3899,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D4" s="7">
+        <v>38448</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="I4" s="7">
+        <v>38869</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="N4" s="7">
+        <v>77317</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,43 +3950,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>210</v>
+      </c>
+      <c r="D5" s="7">
+        <v>212112</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>187</v>
+      </c>
+      <c r="I5" s="7">
+        <v>210370</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>397</v>
+      </c>
+      <c r="N5" s="7">
+        <v>422483</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,43 +4001,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="D6" s="7">
+        <v>250560</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="I6" s="7">
+        <v>249239</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>463</v>
+      </c>
+      <c r="N6" s="7">
+        <v>499800</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +4060,13 @@
         <v>46229</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>63</v>
@@ -4018,13 +4075,13 @@
         <v>70317</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>105</v>
@@ -4033,13 +4090,13 @@
         <v>116546</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4111,13 @@
         <v>360101</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>339</v>
@@ -4069,13 +4126,13 @@
         <v>367506</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>679</v>
@@ -4084,13 +4141,13 @@
         <v>727607</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4215,13 @@
         <v>49329</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -4173,13 +4230,13 @@
         <v>75593</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>115</v>
@@ -4188,13 +4245,13 @@
         <v>124922</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4266,13 @@
         <v>244335</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="H11" s="7">
         <v>237</v>
@@ -4224,13 +4281,13 @@
         <v>253159</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>479</v>
@@ -4239,13 +4296,13 @@
         <v>497494</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,49 +4364,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7">
-        <v>83107</v>
+        <v>44659</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="I13" s="7">
-        <v>98484</v>
+        <v>59615</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="N13" s="7">
-        <v>181591</v>
+        <v>104273</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,49 +4415,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>459</v>
+        <v>249</v>
       </c>
       <c r="D14" s="7">
-        <v>480530</v>
+        <v>268418</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="H14" s="7">
-        <v>456</v>
+        <v>269</v>
       </c>
       <c r="I14" s="7">
-        <v>493570</v>
+        <v>283200</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
-        <v>915</v>
+        <v>518</v>
       </c>
       <c r="N14" s="7">
-        <v>974100</v>
+        <v>551618</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,10 +4466,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>530</v>
+        <v>289</v>
       </c>
       <c r="D15" s="7">
-        <v>563637</v>
+        <v>313077</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4424,10 +4481,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>548</v>
+        <v>326</v>
       </c>
       <c r="I15" s="7">
-        <v>592054</v>
+        <v>342815</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4439,10 +4496,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1078</v>
+        <v>615</v>
       </c>
       <c r="N15" s="7">
-        <v>1155691</v>
+        <v>655891</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4468,13 +4525,13 @@
         <v>33530</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -4483,13 +4540,13 @@
         <v>34097</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>64</v>
@@ -4498,13 +4555,13 @@
         <v>67627</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,13 +4576,13 @@
         <v>158528</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>154</v>
@@ -4534,13 +4591,13 @@
         <v>160485</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>300</v>
@@ -4549,13 +4606,13 @@
         <v>319013</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4680,13 @@
         <v>29408</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -4638,13 +4695,13 @@
         <v>54649</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>81</v>
@@ -4653,13 +4710,13 @@
         <v>84056</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,13 +4731,13 @@
         <v>220565</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -4689,13 +4746,13 @@
         <v>210181</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>411</v>
@@ -4704,13 +4761,13 @@
         <v>430747</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4835,13 @@
         <v>114324</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>118</v>
@@ -4793,13 +4850,13 @@
         <v>131282</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>222</v>
@@ -4808,13 +4865,13 @@
         <v>245606</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,13 +4886,13 @@
         <v>460767</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>454</v>
@@ -4844,13 +4901,13 @@
         <v>494705</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>887</v>
@@ -4859,13 +4916,13 @@
         <v>955472</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4990,13 @@
         <v>81219</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -4948,13 +5005,13 @@
         <v>109277</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="M25" s="7">
         <v>171</v>
@@ -4963,13 +5020,13 @@
         <v>190496</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +5041,13 @@
         <v>552686</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="H26" s="7">
         <v>546</v>
@@ -4999,10 +5056,10 @@
         <v>593017</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>158</v>
@@ -5014,13 +5071,13 @@
         <v>1145703</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,16 +5142,16 @@
         <v>394</v>
       </c>
       <c r="D28" s="7">
-        <v>437146</v>
+        <v>437147</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="H28" s="7">
         <v>527</v>
@@ -5106,7 +5163,7 @@
         <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>76</v>
@@ -5118,13 +5175,13 @@
         <v>1010844</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,19 +5196,19 @@
         <v>2477512</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="H29" s="7">
         <v>2388</v>
       </c>
       <c r="I29" s="7">
-        <v>2572624</v>
+        <v>2572623</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>21</v>
@@ -5160,7 +5217,7 @@
         <v>85</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="M29" s="7">
         <v>4730</v>
@@ -5169,13 +5226,13 @@
         <v>5050136</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,7 +5244,7 @@
         <v>2736</v>
       </c>
       <c r="D30" s="7">
-        <v>2914658</v>
+        <v>2914659</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -5202,7 +5259,7 @@
         <v>2915</v>
       </c>
       <c r="I30" s="7">
-        <v>3146322</v>
+        <v>3146321</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5255,7 +5312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD608DE-376B-4821-934A-3DBFD47A540C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B81B1C-9B40-468A-8B34-69B10511DC68}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5272,7 +5329,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5379,13 +5436,13 @@
         <v>12616</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5394,13 +5451,13 @@
         <v>19739</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -5409,13 +5466,13 @@
         <v>32356</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5487,13 @@
         <v>232602</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="H5" s="7">
         <v>220</v>
@@ -5445,13 +5502,13 @@
         <v>226595</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="M5" s="7">
         <v>429</v>
@@ -5460,13 +5517,13 @@
         <v>459195</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5591,13 @@
         <v>49422</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="H7" s="7">
         <v>52</v>
@@ -5549,13 +5606,13 @@
         <v>58602</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="M7" s="7">
         <v>98</v>
@@ -5564,13 +5621,13 @@
         <v>108024</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,13 +5642,13 @@
         <v>313743</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="H8" s="7">
         <v>320</v>
@@ -5600,13 +5657,13 @@
         <v>334725</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="M8" s="7">
         <v>616</v>
@@ -5615,13 +5672,13 @@
         <v>648468</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,16 +5743,16 @@
         <v>34</v>
       </c>
       <c r="D10" s="7">
-        <v>32417</v>
+        <v>32418</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -5704,10 +5761,10 @@
         <v>30173</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>38</v>
@@ -5719,13 +5776,13 @@
         <v>62591</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,13 +5797,13 @@
         <v>258089</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="H11" s="7">
         <v>276</v>
@@ -5755,13 +5812,13 @@
         <v>277591</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="M11" s="7">
         <v>545</v>
@@ -5770,13 +5827,13 @@
         <v>535679</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,7 +5845,7 @@
         <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>290506</v>
+        <v>290507</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5844,13 +5901,13 @@
         <v>43027</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -5859,13 +5916,13 @@
         <v>56957</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>91</v>
@@ -5877,10 +5934,10 @@
         <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5952,13 @@
         <v>287020</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>275</v>
@@ -5910,13 +5967,13 @@
         <v>291904</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>546</v>
@@ -5928,10 +5985,10 @@
         <v>174</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>391</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +6056,13 @@
         <v>17310</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -6014,13 +6071,13 @@
         <v>25372</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -6029,13 +6086,13 @@
         <v>42682</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,13 +6107,13 @@
         <v>101912</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>127</v>
@@ -6065,13 +6122,13 @@
         <v>120128</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>228</v>
@@ -6080,10 +6137,10 @@
         <v>222040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>134</v>
@@ -6154,10 +6211,10 @@
         <v>16647</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>94</v>
@@ -6169,13 +6226,13 @@
         <v>15938</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>396</v>
+        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -6184,13 +6241,13 @@
         <v>32585</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6262,13 @@
         <v>216968</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>225</v>
@@ -6220,13 +6277,13 @@
         <v>231199</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>403</v>
+        <v>244</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="M20" s="7">
         <v>438</v>
@@ -6235,13 +6292,13 @@
         <v>448168</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,13 +6366,13 @@
         <v>36422</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="H22" s="7">
         <v>39</v>
@@ -6324,13 +6381,13 @@
         <v>43453</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -6339,13 +6396,13 @@
         <v>79875</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,13 +6417,13 @@
         <v>405885</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="H23" s="7">
         <v>422</v>
@@ -6375,13 +6432,13 @@
         <v>443598</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="M23" s="7">
         <v>775</v>
@@ -6390,13 +6447,13 @@
         <v>849483</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6464,10 +6521,10 @@
         <v>75864</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>162</v>
@@ -6479,13 +6536,13 @@
         <v>83356</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="M25" s="7">
         <v>142</v>
@@ -6494,13 +6551,13 @@
         <v>159220</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6515,28 +6572,28 @@
         <v>564388</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="H26" s="7">
         <v>564</v>
       </c>
       <c r="I26" s="7">
-        <v>607986</v>
+        <v>607985</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="M26" s="7">
         <v>1109</v>
@@ -6545,13 +6602,13 @@
         <v>1172373</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,7 +6635,7 @@
         <v>635</v>
       </c>
       <c r="I27" s="7">
-        <v>691342</v>
+        <v>691341</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6619,13 +6676,13 @@
         <v>283725</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>396</v>
+        <v>235</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="H28" s="7">
         <v>298</v>
@@ -6634,13 +6691,13 @@
         <v>333590</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="M28" s="7">
         <v>571</v>
@@ -6649,13 +6706,13 @@
         <v>617315</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,16 +6724,16 @@
         <v>2257</v>
       </c>
       <c r="D29" s="7">
-        <v>2380609</v>
+        <v>2380608</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>403</v>
+        <v>244</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="H29" s="7">
         <v>2429</v>
@@ -6685,28 +6742,28 @@
         <v>2533725</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="M29" s="7">
         <v>4686</v>
       </c>
       <c r="N29" s="7">
-        <v>4914334</v>
+        <v>4914333</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,7 +6775,7 @@
         <v>2530</v>
       </c>
       <c r="D30" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6748,7 +6805,7 @@
         <v>5257</v>
       </c>
       <c r="N30" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6786,7 +6843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6F39BA-7894-4741-B66E-EC91ED274094}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BDF201-FD08-44F6-9134-65D8114D5DCD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6803,7 +6860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6907,46 +6964,46 @@
         <v>38</v>
       </c>
       <c r="D4" s="7">
-        <v>26390</v>
+        <v>29337</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>450</v>
+        <v>367</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
       </c>
       <c r="I4" s="7">
-        <v>21583</v>
+        <v>22683</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>466</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>36</v>
+        <v>468</v>
       </c>
       <c r="M4" s="7">
         <v>82</v>
       </c>
       <c r="N4" s="7">
-        <v>47973</v>
+        <v>52021</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>469</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6958,46 +7015,46 @@
         <v>279</v>
       </c>
       <c r="D5" s="7">
-        <v>228880</v>
+        <v>276093</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>457</v>
+        <v>375</v>
       </c>
       <c r="H5" s="7">
         <v>487</v>
       </c>
       <c r="I5" s="7">
-        <v>247861</v>
+        <v>264924</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>327</v>
+        <v>474</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>46</v>
+        <v>475</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="M5" s="7">
         <v>766</v>
       </c>
       <c r="N5" s="7">
-        <v>476742</v>
+        <v>541016</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>477</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,7 +7066,7 @@
         <v>317</v>
       </c>
       <c r="D6" s="7">
-        <v>255270</v>
+        <v>305430</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7024,7 +7081,7 @@
         <v>531</v>
       </c>
       <c r="I6" s="7">
-        <v>269444</v>
+        <v>287607</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7039,7 +7096,7 @@
         <v>848</v>
       </c>
       <c r="N6" s="7">
-        <v>524715</v>
+        <v>593037</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7062,46 +7119,46 @@
         <v>41</v>
       </c>
       <c r="D7" s="7">
-        <v>40399</v>
+        <v>38287</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
       </c>
       <c r="I7" s="7">
-        <v>72512</v>
+        <v>65965</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>18</v>
+        <v>483</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>464</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>321</v>
       </c>
       <c r="M7" s="7">
         <v>152</v>
       </c>
       <c r="N7" s="7">
-        <v>112911</v>
+        <v>104252</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,46 +7170,46 @@
         <v>330</v>
       </c>
       <c r="D8" s="7">
-        <v>467105</v>
+        <v>468697</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="H8" s="7">
         <v>585</v>
       </c>
       <c r="I8" s="7">
-        <v>467582</v>
+        <v>435583</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>489</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>329</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>471</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>915</v>
       </c>
       <c r="N8" s="7">
-        <v>934687</v>
+        <v>904280</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,7 +7221,7 @@
         <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>507504</v>
+        <v>506984</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7179,7 +7236,7 @@
         <v>696</v>
       </c>
       <c r="I9" s="7">
-        <v>540094</v>
+        <v>501548</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7194,7 +7251,7 @@
         <v>1067</v>
       </c>
       <c r="N9" s="7">
-        <v>1047598</v>
+        <v>1008532</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7217,46 +7274,46 @@
         <v>52</v>
       </c>
       <c r="D10" s="7">
-        <v>36266</v>
+        <v>34330</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>477</v>
+        <v>96</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
       </c>
       <c r="I10" s="7">
-        <v>53169</v>
+        <v>49015</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
       </c>
       <c r="N10" s="7">
-        <v>89435</v>
+        <v>83345</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7268,46 +7325,46 @@
         <v>293</v>
       </c>
       <c r="D11" s="7">
-        <v>271067</v>
+        <v>266862</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>484</v>
+        <v>433</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>485</v>
+        <v>103</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="H11" s="7">
         <v>425</v>
       </c>
       <c r="I11" s="7">
-        <v>305077</v>
+        <v>286260</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="M11" s="7">
         <v>718</v>
       </c>
       <c r="N11" s="7">
-        <v>576144</v>
+        <v>553122</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,7 +7376,7 @@
         <v>345</v>
       </c>
       <c r="D12" s="7">
-        <v>307333</v>
+        <v>301192</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7334,7 +7391,7 @@
         <v>517</v>
       </c>
       <c r="I12" s="7">
-        <v>358246</v>
+        <v>335275</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7349,7 +7406,7 @@
         <v>862</v>
       </c>
       <c r="N12" s="7">
-        <v>665579</v>
+        <v>636467</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7372,46 +7429,46 @@
         <v>52</v>
       </c>
       <c r="D13" s="7">
-        <v>39930</v>
+        <v>37794</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="H13" s="7">
         <v>106</v>
       </c>
       <c r="I13" s="7">
-        <v>52217</v>
+        <v>48686</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="M13" s="7">
         <v>158</v>
       </c>
       <c r="N13" s="7">
-        <v>92148</v>
+        <v>86480</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,46 +7480,46 @@
         <v>236</v>
       </c>
       <c r="D14" s="7">
-        <v>279720</v>
+        <v>272326</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="H14" s="7">
         <v>488</v>
       </c>
       <c r="I14" s="7">
-        <v>373935</v>
+        <v>424779</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="M14" s="7">
         <v>724</v>
       </c>
       <c r="N14" s="7">
-        <v>653654</v>
+        <v>697105</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,7 +7531,7 @@
         <v>288</v>
       </c>
       <c r="D15" s="7">
-        <v>319650</v>
+        <v>310120</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7489,7 +7546,7 @@
         <v>594</v>
       </c>
       <c r="I15" s="7">
-        <v>426152</v>
+        <v>473465</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7504,7 +7561,7 @@
         <v>882</v>
       </c>
       <c r="N15" s="7">
-        <v>745802</v>
+        <v>783585</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7527,46 +7584,46 @@
         <v>34</v>
       </c>
       <c r="D16" s="7">
-        <v>20679</v>
+        <v>18853</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>511</v>
+        <v>184</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
       </c>
       <c r="I16" s="7">
-        <v>46942</v>
+        <v>42651</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>383</v>
+        <v>524</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="M16" s="7">
         <v>151</v>
       </c>
       <c r="N16" s="7">
-        <v>67621</v>
+        <v>61504</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>517</v>
+        <v>353</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7578,46 +7635,46 @@
         <v>229</v>
       </c>
       <c r="D17" s="7">
-        <v>164390</v>
+        <v>149576</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>519</v>
+        <v>194</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="H17" s="7">
         <v>360</v>
       </c>
       <c r="I17" s="7">
-        <v>177983</v>
+        <v>159641</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>531</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="M17" s="7">
         <v>589</v>
       </c>
       <c r="N17" s="7">
-        <v>342373</v>
+        <v>309217</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>526</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7629,7 +7686,7 @@
         <v>263</v>
       </c>
       <c r="D18" s="7">
-        <v>185069</v>
+        <v>168429</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7644,7 +7701,7 @@
         <v>477</v>
       </c>
       <c r="I18" s="7">
-        <v>224925</v>
+        <v>202292</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7659,7 +7716,7 @@
         <v>740</v>
       </c>
       <c r="N18" s="7">
-        <v>409994</v>
+        <v>370721</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7682,46 +7739,46 @@
         <v>61</v>
       </c>
       <c r="D19" s="7">
-        <v>33594</v>
+        <v>32214</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>309</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
       </c>
       <c r="I19" s="7">
-        <v>29405</v>
+        <v>27443</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="M19" s="7">
         <v>126</v>
       </c>
       <c r="N19" s="7">
-        <v>62998</v>
+        <v>59658</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>531</v>
+        <v>494</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7733,46 +7790,46 @@
         <v>283</v>
       </c>
       <c r="D20" s="7">
-        <v>227183</v>
+        <v>221518</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="H20" s="7">
         <v>375</v>
       </c>
       <c r="I20" s="7">
-        <v>234803</v>
+        <v>218907</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="M20" s="7">
         <v>658</v>
       </c>
       <c r="N20" s="7">
-        <v>461987</v>
+        <v>440424</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,7 +7841,7 @@
         <v>344</v>
       </c>
       <c r="D21" s="7">
-        <v>260777</v>
+        <v>253732</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7799,7 +7856,7 @@
         <v>440</v>
       </c>
       <c r="I21" s="7">
-        <v>264208</v>
+        <v>246350</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7814,7 +7871,7 @@
         <v>784</v>
       </c>
       <c r="N21" s="7">
-        <v>524985</v>
+        <v>500082</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7837,46 +7894,46 @@
         <v>82</v>
       </c>
       <c r="D22" s="7">
-        <v>77560</v>
+        <v>75453</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="H22" s="7">
         <v>122</v>
       </c>
       <c r="I22" s="7">
-        <v>81050</v>
+        <v>74969</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>544</v>
+        <v>333</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="M22" s="7">
         <v>204</v>
       </c>
       <c r="N22" s="7">
-        <v>158610</v>
+        <v>150422</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7888,46 +7945,46 @@
         <v>499</v>
       </c>
       <c r="D23" s="7">
-        <v>529689</v>
+        <v>524242</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="H23" s="7">
         <v>801</v>
       </c>
       <c r="I23" s="7">
-        <v>700659</v>
+        <v>753396</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>553</v>
+        <v>340</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="M23" s="7">
         <v>1300</v>
       </c>
       <c r="N23" s="7">
-        <v>1230348</v>
+        <v>1277638</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7939,7 +7996,7 @@
         <v>581</v>
       </c>
       <c r="D24" s="7">
-        <v>607249</v>
+        <v>599695</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7954,7 +8011,7 @@
         <v>923</v>
       </c>
       <c r="I24" s="7">
-        <v>781709</v>
+        <v>828365</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7969,7 +8026,7 @@
         <v>1504</v>
       </c>
       <c r="N24" s="7">
-        <v>1388958</v>
+        <v>1428060</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7992,46 +8049,46 @@
         <v>74</v>
       </c>
       <c r="D25" s="7">
-        <v>63407</v>
+        <v>54347</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>568</v>
       </c>
       <c r="H25" s="7">
         <v>115</v>
       </c>
       <c r="I25" s="7">
-        <v>79281</v>
+        <v>66517</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="M25" s="7">
         <v>189</v>
       </c>
       <c r="N25" s="7">
-        <v>142689</v>
+        <v>120864</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8043,46 +8100,46 @@
         <v>670</v>
       </c>
       <c r="D26" s="7">
-        <v>770878</v>
+        <v>854292</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>443</v>
+        <v>576</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="H26" s="7">
         <v>924</v>
       </c>
       <c r="I26" s="7">
-        <v>772788</v>
+        <v>637407</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="M26" s="7">
         <v>1594</v>
       </c>
       <c r="N26" s="7">
-        <v>1543665</v>
+        <v>1491699</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8094,7 +8151,7 @@
         <v>744</v>
       </c>
       <c r="D27" s="7">
-        <v>834285</v>
+        <v>908639</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8109,7 +8166,7 @@
         <v>1039</v>
       </c>
       <c r="I27" s="7">
-        <v>852069</v>
+        <v>703924</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8124,7 +8181,7 @@
         <v>1783</v>
       </c>
       <c r="N27" s="7">
-        <v>1686354</v>
+        <v>1612563</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8147,46 +8204,46 @@
         <v>434</v>
       </c>
       <c r="D28" s="7">
-        <v>338225</v>
+        <v>320615</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>574</v>
+        <v>480</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>336</v>
+        <v>585</v>
       </c>
       <c r="H28" s="7">
         <v>772</v>
       </c>
       <c r="I28" s="7">
-        <v>436160</v>
+        <v>397930</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="M28" s="7">
         <v>1206</v>
       </c>
       <c r="N28" s="7">
-        <v>774384</v>
+        <v>718545</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8198,46 +8255,46 @@
         <v>2819</v>
       </c>
       <c r="D29" s="7">
-        <v>2938913</v>
+        <v>3033606</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>345</v>
+        <v>593</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>581</v>
+        <v>486</v>
       </c>
       <c r="H29" s="7">
         <v>4445</v>
       </c>
       <c r="I29" s="7">
-        <v>3280688</v>
+        <v>3180897</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="M29" s="7">
         <v>7264</v>
       </c>
       <c r="N29" s="7">
-        <v>6219602</v>
+        <v>6214503</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8249,7 +8306,7 @@
         <v>3253</v>
       </c>
       <c r="D30" s="7">
-        <v>3277138</v>
+        <v>3354221</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8264,7 +8321,7 @@
         <v>5217</v>
       </c>
       <c r="I30" s="7">
-        <v>3716848</v>
+        <v>3578827</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8279,7 +8336,7 @@
         <v>8470</v>
       </c>
       <c r="N30" s="7">
-        <v>6993986</v>
+        <v>6933048</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
